--- a/Data/Screeners/NH2021-12.xlsx
+++ b/Data/Screeners/NH2021-12.xlsx
@@ -21,6 +21,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-17" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-19" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-23" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-24" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-28" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3058,6 +3062,1470 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JXN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VCRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTRG </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUBE </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TNDM </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPW </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSCO </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SWCH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAYX </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CERN </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VCRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUSA </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VREX </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IQV </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FDS </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEO </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACC </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRAA </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRDG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAYX </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICLR </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TW </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AVGO </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STE </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADP </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARC </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PI </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANET </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TER </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRDG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> REAX </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GDYN </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARC </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGH </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPAY </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMH </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RDWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TW </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FWRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNPS </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RILY </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLIT </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVMI </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLL </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSV </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CYTK </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ON </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KLAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NVST </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GMRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DPZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GCP </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXLS </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2021-12.xlsx
+++ b/Data/Screeners/NH2021-12.xlsx
@@ -25,6 +25,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-23" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-24" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-28" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-29" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-12-31" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4526,6 +4529,282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALGM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRTA </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AOSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSGS </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SMPL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCRN </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IPAR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RILY </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4654,6 +4933,568 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNM </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARHS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KNSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRAA </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMH </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RDWR </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GOOD </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NMRK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLYM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AIRC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXRT </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAM </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RILY </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GMRE </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ROIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LSI </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WH </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
         </is>
       </c>
     </row>
